--- a/data/trans_camb/P1416-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1416-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.431883235854794</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.616835128102428</v>
+        <v>4.616835128102426</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.01349660318775286</v>
@@ -655,7 +655,7 @@
         <v>-0.7433767792558208</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.407846286831385</v>
+        <v>6.407846286831388</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.9083860345363028</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.084239512145674</v>
+        <v>-4.337637158806172</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.924590740842037</v>
+        <v>-5.381738241312457</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9323236318427565</v>
+        <v>0.8731618538866294</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.469986043769771</v>
+        <v>-2.604487029068753</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.119265456013424</v>
+        <v>-3.262768776667065</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.968505213184004</v>
+        <v>3.417504846483061</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.627166810468233</v>
+        <v>-2.69550837998913</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.518742137182723</v>
+        <v>-3.442010058762392</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.023994314751667</v>
+        <v>3.136393340065328</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.184518160301756</v>
+        <v>0.9823384446742559</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.1051575976450045</v>
+        <v>-0.308752529784901</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.420574100818984</v>
+        <v>8.570914373750758</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.654840823320989</v>
+        <v>2.512741916117407</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.625536053628905</v>
+        <v>1.632234879481561</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.437429751363577</v>
+        <v>9.873058232358819</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9871418329820935</v>
+        <v>0.8064787776398223</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.1209095201649006</v>
+        <v>-0.1106953177120938</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.955277703740596</v>
+        <v>7.931240707128162</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.3647455154526986</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.6924550832589376</v>
+        <v>0.6924550832589371</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.001505451488562656</v>
@@ -760,7 +760,7 @@
         <v>-0.08291846943452422</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.714750341015037</v>
+        <v>0.7147503410150372</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.1125052179521997</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4782056061718452</v>
+        <v>-0.4951037329912435</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5874242924465929</v>
+        <v>-0.58791075582254</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.09981421302465864</v>
+        <v>0.1095834982096878</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2372792908451236</v>
+        <v>-0.2541075641532833</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3043039413032959</v>
+        <v>-0.3020949857852368</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2878144321373978</v>
+        <v>0.3208495804169911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2971160068411822</v>
+        <v>-0.2970664447403704</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.383441972056294</v>
+        <v>-0.3697502472337867</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3136467644854219</v>
+        <v>0.3251347783905181</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2399472010511402</v>
+        <v>0.1939415780073455</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.02418579380772937</v>
+        <v>-0.02127608807886074</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.666311668505221</v>
+        <v>1.601969052899431</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3350273245718515</v>
+        <v>0.3225941292716988</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2224543379701633</v>
+        <v>0.2169422774660605</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.214940531594642</v>
+        <v>1.287735136219209</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1326650313056409</v>
+        <v>0.1145732071050387</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.01992353875301088</v>
+        <v>-0.01419170169852042</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.081284966428076</v>
+        <v>1.102712662069657</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-2.601364495630365</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.2053855026791895</v>
+        <v>-0.2053855026791881</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.617896469184823</v>
+        <v>-5.514610395535517</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.772902583402998</v>
+        <v>-4.713561169736037</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.898532697555757</v>
+        <v>-2.805281234467128</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.392818937816139</v>
+        <v>-6.163089852499628</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.366403964680805</v>
+        <v>-5.119959961617853</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.861153744297801</v>
+        <v>-2.732125826953831</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.189865072668808</v>
+        <v>-5.097409282799132</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.361170355343888</v>
+        <v>-4.180355802367377</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.93208918484482</v>
+        <v>-1.904757916867216</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.139417987798404</v>
+        <v>-1.257775483298576</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.4703052482980323</v>
+        <v>-0.4011495049323199</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.195552916221475</v>
+        <v>2.185057000339225</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.341212229810332</v>
+        <v>-1.510024075363267</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.1247333845842552</v>
+        <v>-0.3360308069909014</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.117698046630957</v>
+        <v>2.190864652264271</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.833549783059908</v>
+        <v>-1.911730217606909</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.060140467537244</v>
+        <v>-0.9988294844883361</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.585159675884448</v>
+        <v>1.459150747482294</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.2867985571405677</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.02264360335697902</v>
+        <v>-0.02264360335697886</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6417777918573399</v>
+        <v>-0.6287478821112611</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5524163144239365</v>
+        <v>-0.5496790564144414</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3284704485595343</v>
+        <v>-0.320009922372248</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.532512725033508</v>
+        <v>-0.5246449789749382</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4490460157081815</v>
+        <v>-0.4469003450698232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2426771411474435</v>
+        <v>-0.2314196968220859</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5096966789215376</v>
+        <v>-0.5167789754681132</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4299637083569884</v>
+        <v>-0.4211302667555701</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.192214403205069</v>
+        <v>-0.1912986387653978</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1775931981789986</v>
+        <v>-0.1809564480268537</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.0703224478049861</v>
+        <v>-0.05972774897543974</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3477658702725996</v>
+        <v>0.3380224830140014</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1361521694700693</v>
+        <v>-0.1724692732814414</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.01468353260194383</v>
+        <v>-0.032961081064488</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2283634543968511</v>
+        <v>0.2350664498493987</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2191601687975405</v>
+        <v>-0.2250554696430786</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1238571749731206</v>
+        <v>-0.1147682280878306</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1968111163245411</v>
+        <v>0.178261386645927</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.05626664882164081</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.456254955019464</v>
+        <v>3.456254955019461</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.574754438617469</v>
@@ -1092,7 +1092,7 @@
         <v>-0.3648025684645451</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.247415776527868</v>
+        <v>3.247415776527866</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.205119092417402</v>
+        <v>-2.238009246074835</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.315897250898467</v>
+        <v>-2.304350058009835</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9967490430709683</v>
+        <v>1.04528296182883</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.019635233314089</v>
+        <v>-4.91502191196126</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.246949643322299</v>
+        <v>-3.15983521527903</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4299329915335539</v>
+        <v>0.6252604905957615</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.832872015963547</v>
+        <v>-2.929183538545101</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.166561361526132</v>
+        <v>-2.035196395513703</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.616381518478358</v>
+        <v>1.40506469463848</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.101006729688438</v>
+        <v>1.998721754246689</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.037497569117499</v>
+        <v>2.072071781468195</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.105249702278496</v>
+        <v>6.107161322384711</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.3665919564577361</v>
+        <v>-0.2125847536557287</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.691385111555611</v>
+        <v>1.960773280446212</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.557482585129417</v>
+        <v>5.451722037262757</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3188916436382774</v>
+        <v>0.5313489947876542</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.408462841956252</v>
+        <v>1.296990336638689</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.231069988900047</v>
+        <v>5.02615143974658</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.00958426972751663</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5887267223071559</v>
+        <v>0.5887267223071555</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.3120798234504851</v>
@@ -1197,7 +1197,7 @@
         <v>-0.05219873513339184</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4646650288139372</v>
+        <v>0.464665028813937</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3194914983356499</v>
+        <v>-0.3243072368226926</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3259291001652797</v>
+        <v>-0.3211437355507507</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1344247045411616</v>
+        <v>0.1441378877368691</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5132655480357575</v>
+        <v>-0.5071428849582653</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3416522110412522</v>
+        <v>-0.3433287472315393</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03074254774193189</v>
+        <v>0.06373969486448376</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3713462871674308</v>
+        <v>-0.3703007576132947</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.274931726435999</v>
+        <v>-0.2611428511579115</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2150152681655033</v>
+        <v>0.1655791687151587</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4310947141605235</v>
+        <v>0.4229491969308637</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4161182767024021</v>
+        <v>0.4170167652855469</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.242601090230307</v>
+        <v>1.237487468587654</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.03999060646113021</v>
+        <v>-0.001634458439064884</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2431550686313237</v>
+        <v>0.3039635294678269</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7716174968408083</v>
+        <v>0.7838426523246652</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0503643045897161</v>
+        <v>0.09120833185796612</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.222795266352707</v>
+        <v>0.2149674815165749</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.86445098923329</v>
+        <v>0.8048383869668788</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.558116400717809</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.210947540684876</v>
+        <v>5.210947540684878</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-3.877097183882527</v>
@@ -1306,7 +1306,7 @@
         <v>-2.301272562925047</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.44634782203886</v>
+        <v>3.446347822038859</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.914045456623381</v>
+        <v>-4.542280274641143</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.635059366090479</v>
+        <v>-4.856209409660587</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.839765944320036</v>
+        <v>1.81319886426463</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.414027557600368</v>
+        <v>-8.50466559893275</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.788796279869302</v>
+        <v>-8.776603878694642</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.966536613438427</v>
+        <v>-2.942372748985461</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.246757528635813</v>
+        <v>-5.075064938941397</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.873123015422702</v>
+        <v>-5.173534612678974</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9259146033193042</v>
+        <v>0.6791843221078826</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.679638096678664</v>
+        <v>1.898696193673642</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.488989374741864</v>
+        <v>1.373919928234406</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.774036530364883</v>
+        <v>8.505883482818346</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4691985815438894</v>
+        <v>0.4397251738260308</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5305797127988351</v>
+        <v>0.03266967295911935</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.271526086280764</v>
+        <v>4.823892257664408</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.329859461209599</v>
+        <v>0.3142943096835987</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3342675190589977</v>
+        <v>0.08112933177543426</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.904814010911926</v>
+        <v>6.289100937229454</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2297423816863683</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7683479220731778</v>
+        <v>0.768347922073178</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.3301504908366814</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2577289490382059</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3859706218654966</v>
+        <v>0.3859706218654964</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5491154709412052</v>
+        <v>-0.5260841124982309</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5630225687802566</v>
+        <v>-0.5776939212201126</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1928793567199942</v>
+        <v>0.1831809188621431</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.583284778112831</v>
+        <v>-0.5853103347192109</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5616233213495829</v>
+        <v>-0.5806401871238851</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2084568835094646</v>
+        <v>-0.2035807570449161</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4745337239515823</v>
+        <v>-0.4787148414538899</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4715245120561391</v>
+        <v>-0.4776482973392028</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.0870355291919083</v>
+        <v>0.06615055874372679</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3411705278416507</v>
+        <v>0.4260614974339542</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3445320448607814</v>
+        <v>0.2620222292705494</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.707798499365298</v>
+        <v>1.661323614576464</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.05932077768307321</v>
+        <v>0.06012945985227059</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.05976724102488869</v>
+        <v>0.01898411669282054</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6116327465022896</v>
+        <v>0.5480343013429156</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06046137211911561</v>
+        <v>0.05008586363424786</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.04793083775856254</v>
+        <v>0.01116322757700776</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.827909279641494</v>
+        <v>0.8845711512422325</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-1.66873802979671</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.770254324483858</v>
+        <v>2.770254324483859</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.768069162926534</v>
+        <v>-2.865038456529456</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.960512206609556</v>
+        <v>-3.093626440162599</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.687656144487999</v>
+        <v>1.605376381619658</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.526289810725157</v>
+        <v>-3.60703939922888</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.998413957297832</v>
+        <v>-2.98892067084629</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9576582262060788</v>
+        <v>0.9282124556861751</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.779167289869549</v>
+        <v>-2.797155237522412</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.604889842827078</v>
+        <v>-2.630235996990814</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.753518179462819</v>
+        <v>1.782163723947945</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.3966480759501053</v>
+        <v>-0.3806246862007517</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.5759629536622149</v>
+        <v>-0.6148438083594806</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.62793961823594</v>
+        <v>4.575157831064478</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.7633777260447182</v>
+        <v>-0.786546494039712</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.2118100092056956</v>
+        <v>-0.2871399672979879</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.846536204872347</v>
+        <v>4.011020178866616</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.9408546266535629</v>
+        <v>-1.024323288319291</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.7975044139386622</v>
+        <v>-0.8833041141721368</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.745193722868668</v>
+        <v>3.802654281539486</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.2047202847915238</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3398539759547368</v>
+        <v>0.3398539759547369</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3760918516912917</v>
+        <v>-0.3919865367104099</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3943539855654091</v>
+        <v>-0.4152342677378444</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2264972599340881</v>
+        <v>0.2142767122258727</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3508522825036393</v>
+        <v>-0.3544360493272118</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2939403806472131</v>
+        <v>-0.292616817600693</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09232239972295869</v>
+        <v>0.08940065471181086</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3218490831310455</v>
+        <v>-0.3238213036987943</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3035951192640887</v>
+        <v>-0.3006225346906772</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2010034906627559</v>
+        <v>0.2033322001658488</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.06449271074307038</v>
+        <v>-0.06431407946451316</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.08946115572111217</v>
+        <v>-0.09989655504838746</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7509345621856822</v>
+        <v>0.7436608422714518</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.0847268226896417</v>
+        <v>-0.09259270588076164</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.02589362310864552</v>
+        <v>-0.03084235610171546</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4346542498843451</v>
+        <v>0.4650444191087141</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1236541128710915</v>
+        <v>-0.1343346305927781</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.107813612242549</v>
+        <v>-0.1128629082406183</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.494376016992405</v>
+        <v>0.494198367702869</v>
       </c>
     </row>
     <row r="34">
